--- a/doc/skill.xlsx
+++ b/doc/skill.xlsx
@@ -23,28 +23,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
-    <t xml:space="preserve">skillId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atkCoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpCost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damageRange</t>
+    <t xml:space="preserve">SkillId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AtkCoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MpCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoundCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SelectType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SelectCount</t>
   </si>
   <si>
     <t xml:space="preserve">技能ID</t>
@@ -109,8 +109,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">用钱财贿赂敌方，使敌方受贿</t>
@@ -129,8 +129,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">个回合，若敌方主将战败，副将将变成己方单位 </t>
@@ -326,8 +326,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -563,7 +563,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +575,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>10007</v>
       </c>
@@ -1429,7 +1429,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1475,9 +1475,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
